--- a/sessions/data/Part_I/Congressional_Bills/dinamic/Congressional_Bills_n_1.xlsx
+++ b/sessions/data/Part_I/Congressional_Bills/dinamic/Congressional_Bills_n_1.xlsx
@@ -468,17 +468,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06691/2023-CR</t>
+          <t>Proyecto de Ley 06707/2023-CR</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fecha de Presentación18/12/2023</t>
+          <t>Fecha de Presentación19/12/2023</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TítuloLEY DE EXPULSIÓN DE EXTRANJEROS DETENIDOS EN FLAGRANCIA DELICTIVA</t>
+          <t>TítuloLEY QUE MODIFICA EL ARTÍCULO IV DEL TÍTULO PRELIMINAR, Y, LOS ARTÍCULOS 60, 61, 65, 68, 322, Y, 330 DEL CÓDIGO PROCESAL PENAL CON LA FINALIDAD DE FORTALECER EL SISTEMA DE JUSTICIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -493,24 +493,24 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>AutoresOlivos Martínez, Vivian Ventura Ángel, Héctor José Revilla Villanueva, César Manuel ver más...</t>
+          <t>AutoresBurgos Oliveros, Juan Bartolomé Ugarte Mamani, Jhakeline Katy Acuña Peralta, Segundo Héctor</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06690/2023-CR</t>
+          <t>Proyecto de Ley 06706/2023-CR</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fecha de Presentación18/12/2023</t>
+          <t>Fecha de Presentación19/12/2023</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE CREA LA UNIVERSIDAD NACIONAL AUTÓNOMA DEL VILCANOTA</t>
+          <t>TítuloLEY QUE MODIFICA LA LEY 29694, LEY QUE PROTEGE A LOS CONSUMIDORES DE LAS PRÁCTICAS ABUSIVAS EN LA SELECCIÓN O ADQUISICIÓN DE TEXTOS ESCOLARES</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -525,24 +525,24 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>AutoresBalcázar Zelada, José María Coayla Juárez, Jorge Samuel Marticorena Mendoza, Jorge Alfonso ver más...</t>
+          <t>AutoresUgarte Mamani, Jhakeline Katy Burgos Oliveros, Juan Bartolomé Acuña Peralta, Segundo Héctor</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06689/2023-CR</t>
+          <t>Proyecto de Ley 06705/2023-CR</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fecha de Presentación18/12/2023</t>
+          <t>Fecha de Presentación19/12/2023</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TítuloLEY MARCO PARA LA PROTECCIÓN Y FORTALECIMIENTO DE LA FAMILIA</t>
+          <t>TítuloLEY QUE MODIFICA EL ARTÍCULO 112 DE LA LEY 29338, LEY DE RECURSOS HÍDRICOS, A FIN DE PROMOVER LA PROTECCIÓN DEL AGUA SUPERFICIAL Y AGUA SUBTERRANEA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -557,24 +557,24 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>AutoresJáuregui Martínez de Aguayo, María de los Milagros Jackeline Huamán Coronado, Raúl Infantes Castañeda, Mery Eliana ver más...</t>
+          <t>AutoresUgarte Mamani, Jhakeline Katy Burgos Oliveros, Juan Bartolomé Acuña Peralta, Segundo Héctor</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06688/2023-CR</t>
+          <t>Proyecto de Ley 06704/2023-CR</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fecha de Presentación18/12/2023</t>
+          <t>Fecha de Presentación19/12/2023</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE ESTABLECE PARÁMETROS PARA EL SANEAMIENTO DE LA PROPIEDAD DE LOS POSESIONARIOS DE VIVIENDA CONSTRUIDAS CON RECURSOS DEL FONAVI</t>
+          <t>TítuloLEY QUE ESTABLECE LOS REQUISITOS MÍNIMOS DEL PLAN DE TRABAJO PERICIAL PARA GARANTIZAR EL DERECHO DE DEFENSA DE LOS CIUDADANOS</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -589,24 +589,24 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>AutoresLimachi Quispe, Nieves Esmeralda Bazán Narro, Sigrid Tesoro Cortez Aguirre, Isabel ver más...</t>
+          <t>AutoresUgarte Mamani, Jhakeline Katy Burgos Oliveros, Juan Bartolomé Acuña Peralta, Segundo Héctor</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06687/2023-CR</t>
+          <t>Proyecto de Ley 06703/2023-CR</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fecha de Presentación15/12/2023</t>
+          <t>Fecha de Presentación19/12/2023</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA EL DECRETO LEGISLATIVO N° 1372, DECRETO LEGISLATIVO QUE REGULA LA OBLIGACIÓN DE LAS PERSONAS JURÍDICAS Y/O ENTES JURÍDICOS DE INFORMAR LA IDENTIFICACIÓN DE LOS BENEFICIARIOS FINALES</t>
+          <t>TítuloLEY QUE MODIFICA EL ARTÍCULO 5 DEL DECRETO LEGISLATIVO 1215, A FIN DE GARANTIZAR LA RECUPERACIÓN DE BIENES PERDIDOS O SUSTRAIDOS DE SU POSESIÓMN</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,24 +621,24 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>AutoresAnderson Ramírez, Carlos Antonio</t>
+          <t>AutoresUgarte Mamani, Jhakeline Katy Burgos Oliveros, Juan Bartolomé Acuña Peralta, Segundo Héctor</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06686/2023-CR</t>
+          <t>Proyecto de Ley 06702/2023-CR</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Fecha de Presentación15/12/2023</t>
+          <t>Fecha de Presentación19/12/2023</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA EL ARTÍCULO 382 DEL CÓDIGO PENAL</t>
+          <t>TítuloLEY QUE PROMUEVE LA ATENCIÓN Y CUIDADO DE LA SALUD MENTAL DE LOS PROFESIONALES SERUMISTAS, Y MODIFICA LA LEY N° 23330, QUE ESTABLECE EL SERVICIO RURAL Y URBANO MARGINAL DE SALUD — SERUMS</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -653,24 +653,24 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>AutoresAnderson Ramírez, Carlos Antonio</t>
+          <t>AutoresUgarte Mamani, Jhakeline Katy Burgos Oliveros, Juan Bartolomé Acuña Peralta, Segundo Héctor</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06685/2023-CR</t>
+          <t>Proyecto de Ley 06701/2023-PE</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Fecha de Presentación15/12/2023</t>
+          <t>Fecha de Presentación19/12/2023</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA LA LEY 31313, LEY DE DESARROLLO URBANO SOSTENIBLE, CON LA FINALIDAD DE MITIGAR LOS EFECTOS NEGATIVOS GENERADOS POR PROYECTOS DE INFRAESTRUCTURA VIAL DE ALCANCE METROPOLITANO</t>
+          <t>TítuloLEY QUE ESTABLECE MEDIDAS COMPLEMENTARIAS PARA PROMOVER EL SERVICIO DE TRANSPORTE PÚBLICO TERRESTRE DE MERCANCÍAS Y EL SERVICIO DE TRANSPORTE REGULAR DE PERSONAS, A TRAVÉS DE LA AMPLIACIÓN DE LA HABILITACIÓN PRESUPUESTARIA ESTABLECIDA POR LA LEY N° 31708, LEY QUE ESTABLECE MEDIDAS COMPLEMENTARIAS PARA PROMOVER EL SERVICIO DE TRANSPORTE PÚBLICO TERRESTRE DE MERCANCÍAS Y EL SERVICIO DE TRANSPORTE REGULAR DE PERSONAS</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -680,29 +680,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ProponenteCongreso</t>
+          <t>ProponentePoder Ejecutivo</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>AutoresAragón Carreño, Luis Ángel Espinoza Vargas, Jhaec Darwin Portero López, Hilda Marleny ver más...</t>
+          <t>Autores</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06684/2023-CR</t>
+          <t>Proyecto de Ley 06700/2023-CR</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Fecha de Presentación15/12/2023</t>
+          <t>Fecha de Presentación19/12/2023</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE PROMUEVE EL TURISMO FÍLMICO EN LA REGIÓN DEL CUSCO</t>
+          <t>TítuloLEY QUE PERMITE A LOS JEFES DE PRÁCTICA FORMAR PARTE DE LA CARRERA DOCENTE UNIVERSITARIA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -717,24 +717,24 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>AutoresAragón Carreño, Luis Ángel Espinoza Vargas, Jhaec Darwin Vergara Mendoza, Elvis Hernán ver más...</t>
+          <t>AutoresBellido Ugarte, Guido Balcázar Zelada, José María Varas Meléndez, Elías Marcial ver más...</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06683/2023-CR</t>
+          <t>Proyecto de Ley 06699/2023-CR</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Fecha de Presentación15/12/2023</t>
+          <t>Fecha de Presentación19/12/2023</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Título"LEY QUE DECLARA DE NECESIDAD PÚBLICA PARA LA CREACIÓN DE UNA UNIDAD DE HEMODINÁMICA EN EL HOSPITAL REGIONAL DE LORETO"</t>
+          <t>TítuloLEY QUE PRORROGA EL PLAZO DE EXONERACION DEL PAGO DE TASAS REGISTRALES Y CUALQUIER OTRO DERECHO DE TRÁMITE A LOS GOBIERNOS REGIONALES, EN EL EJERCICIO DE LA FUNCIÓN DESCRITA EN EL LITERAL N) DEL ARTÍCULO 51 DE LA LEY N° 27867, ESTABLECIDO EN EL DECRETO SUPREMO N° 020-2019-JUS</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -749,24 +749,24 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>AutoresSaavedra Casternoque, Hitler Azurín Loayza, Alfredo Valer Pinto, Héctor ver más...</t>
+          <t>AutoresPadilla Romero, Javier Rommel Montoya Manrique, Jorge Carlos Muñante Barrios, Alejandro ver más...</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06682/2023-CR</t>
+          <t>Proyecto de Ley 06698/2023-CR</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Fecha de Presentación15/12/2023</t>
+          <t>Fecha de Presentación19/12/2023</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Título"LEY QUE DECLARA DE INTERÉS NACIONAL Y NECESIDAD PÚBLICA LA CREACIÓN E IMPLEMENTACIÓN DEL CENTRO REGIONAL DE SALUD RENAL EN LA AMAZONÍA PERUANA"</t>
+          <t>TítuloLEY QUE CREA LA FECHA DEL 23 DE SETIEMBRE COMO "EL DIA NACIONAL DE LA JUVENTUD" A FIN DE OPTIMIZAR LOS RECURSOS PÚBLICOS DE LOS PROGRAMAS ASIGNADOS PARA SU DESARROLLO INTEGRAL.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -781,24 +781,24 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>AutoresSaavedra Casternoque, Hitler Azurín Loayza, Alfredo Valer Pinto, Héctor ver más...</t>
+          <t>AutoresPadilla Romero, Javier Rommel Montoya Manrique, Jorge Carlos Jáuregui Martínez de Aguayo, María de los Milagros Jackeline ver más...</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06681/2023-CR</t>
+          <t>Proyecto de Ley 06697/2023-CR</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Fecha de Presentación15/12/2023</t>
+          <t>Fecha de Presentación19/12/2023</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>TítuloPROYECTO DE LEY QUE REESTABLECE LA FORMACIÓN PRE-MILITAR EN LA EDUCACIÓN BÁSICA REGULAR (5TO AÑO DE EDUCACIÓN SECUNDARIA) Y MODIFICA EL ARTÍCULO 36° DE LA LEY 28044, LEY GENERAL DE EDUCACIÓN</t>
+          <t>TítuloLEY QUE INCORPORA EL PRINCIPIO DE PREVENCIÓN DE LA SALUD Y FOMENTA LA ENSEÑANZA DE PRIMEROS AUXILIOS EN EL CURRICULO NACIONAL DE EDUCACIÓN</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -813,24 +813,24 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>AutoresArriola Tueros, José Alberto Paredes Fonseca, Karol Ivett Alva Rojas, Carlos Enrique ver más...</t>
+          <t>AutoresJuárez Gallegos, Carmen Patricia Castillo Rivas, Eduardo Enrique Rospigliosi Capurro, Fernando Miguel ver más...</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06680/2023-CR</t>
+          <t>Proyecto de Ley 06696/2023-CR</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Fecha de Presentación15/12/2023</t>
+          <t>Fecha de Presentación19/12/2023</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA LOS ARTÍCULOS 368-A, 368-B, 368-C Y 368-D DEL CODIGO PENAL REFERIDO A LA SEGURIDAD AL INTERIOR DE LOS ESTABLECIMIENTOS PENITENCIARIOS</t>
+          <t>TítuloLEY QUE SANCIONA PENALMENTE EL EXPENDIO DE BEBIDAS ALCOHÓLICAS A MENORES DE EDAD</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -845,24 +845,24 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>AutoresAlva Prieto, María del Carmen Arriola Tueros, José Alberto Paredes Fonseca, Karol Ivett ver más...</t>
+          <t>AutoresCruz Mamani, Flavio Palacios Huamán, Margot Agüero Gutiérrez, María Antonieta ver más...</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06679/2023-CR</t>
+          <t>Proyecto de Ley 06695/2023-CR</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Fecha de Presentación15/12/2023</t>
+          <t>Fecha de Presentación19/12/2023</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA LA PROGNOSIS DE LA PENA DE LOS DELITOS AMBIENTALES ESTABLECIDOS EN EL TITULO XIII: DELITOS AMBIENTALES DEL CODIGO PENAL Y DISPONE LA DEROGACIÓN DEL ARTICULO 314-D DEL MISMO CUERPO NORMATIVO</t>
+          <t>TítuloLEY QUE DECLARA DE NECESIDAD PÚBLICA E INTERÉS NACIONAL LA CONSTRUCCIÓN DEL AEROPUERTO INTERNACIONAL EN LA PROVINCIA DE CHUCUITO, DEPARTAMENTO DE PUNO</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -877,24 +877,24 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>AutoresDávila Atanacio, Pasión Neomías Medina Hermosilla, Elizabeth Sara Tacuri Valdivia, Germán Adolfo ver más...</t>
+          <t>AutoresCruz Mamani, Flavio Palacios Huamán, Margot Agüero Gutiérrez, María Antonieta ver más...</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06678/2023-CR</t>
+          <t>Proyecto de Ley 06694/2023-CR</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Fecha de Presentación15/12/2023</t>
+          <t>Fecha de Presentación19/12/2023</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE DISPONE EL OTORGAMIENTO DE UNA BONIFICACIÓN ESPECIAL POR UBICACIÓN DE LA INSTITUCIÓN EDUCATIVA: ÁMBITO ZONA DE ALTURA PARA TRABAJADORES ADMINISTRATIVOS DEL SECTOR EDUCACIÓN</t>
+          <t>TítuloLEY QUE AUTORIZA EL NOMBRAMIENTO EXCEPCIONAL Y PROGRESIVO DURANTE EL AÑO 2024 A FAVOR DE DOCENTES QUE NO ALCANZARON PLAZA VACANTE Y QUE APROBARON LA EVALUACIÓN PARA EL INGRESO EN LA CARRERA PÚBLICA MAGISTERIAL (2022- 2023)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -909,24 +909,24 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>AutoresDávila Atanacio, Pasión Neomías Medina Hermosilla, Elizabeth Sara Tacuri Valdivia, Germán Adolfo ver más...</t>
+          <t>AutoresCruz Mamani, Flavio Palacios Huamán, Margot Agüero Gutiérrez, María Antonieta ver más...</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06677/2023-CR</t>
+          <t>Proyecto de Ley 06693/2023-CR</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Fecha de Presentación15/12/2023</t>
+          <t>Fecha de Presentación19/12/2023</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA LA "LEY N° 31564 LEY DE PREVENCIÓN Y MITIGACIÓN DEL CONFLICTO DE INTERESES EN EL ACCESO Y SALIDA DE PERSONAL DEL SERVICIO PÚBLICO</t>
+          <t>TítuloLEY QUE DISPONE LA EXONERACIÓN DEL PAGO DE TASAS JUDICIALES EN SOLICITUDES DE AUTORIZACIÓN PARA DISPONER DERECHOS DE MENORES</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -941,24 +941,24 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>AutoresDávila Atanacio, Pasión Neomías Medina Hermosilla, Elizabeth Sara Gutiérrez Ticona, Paul Silvio ver más...</t>
+          <t>AutoresCruz Mamani, Flavio Palacios Huamán, Margot Gonza Castillo, Américo ver más...</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06676/2023-CR</t>
+          <t>Proyecto de Ley 06692/2023-CR</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Fecha de Presentación15/12/2023</t>
+          <t>Fecha de Presentación19/12/2023</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA EL ARTÍCULO 273-A DEL CODIGO PENAL</t>
+          <t>TítuloLEY QUE RECONOCE LA EXPERIENCIA LABORAL PREVIA AL EGRESO DE LA CARRERA TÉCNICA O UNIVERSITARIA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -973,24 +973,24 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>AutoresAlva Prieto, María del Carmen Monteza Facho, Silvia María Arriola Tueros, José Alberto ver más...</t>
+          <t>AutoresCruz Mamani, Flavio Mita Alanoca, Isaac Agüero Gutiérrez, María Antonieta ver más...</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06675/2023-CR</t>
+          <t>Proyecto de Ley 06691/2023-CR</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Fecha de Presentación15/12/2023</t>
+          <t>Fecha de Presentación18/12/2023</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>TítuloLEY PARA LA IMPLEMENTACIÓN DEL SISTEMA DE GESTIÓN DE LA CALIDAD SEGÚN LA NORMA ISO 9001 EN LA ADMNISTRACIÓN PÚBLICA.</t>
+          <t>TítuloLEY DE EXPULSIÓN DE EXTRANJEROS DETENIDOS EN FLAGRANCIA DELICTIVA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1005,29 +1005,29 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>AutoresZeballos Madariaga, Carlos Javier Juárez Calle, Heidy Lisbeth Calle Lobatón, Digna ver más...</t>
+          <t>AutoresOlivos Martínez, Vivian Ventura Ángel, Héctor José Revilla Villanueva, César Manuel ver más...</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06674/2023-CR</t>
+          <t>Proyecto de Ley 06690/2023-CR</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Fecha de Presentación15/12/2023</t>
+          <t>Fecha de Presentación18/12/2023</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE DECLARA DE INTERÉS NACIONAL LA INCORPORACIÓN EN EL CURRÍCULO NACIONAL DE ESCUELAS DE EDUCACIÓN SUPERIOR PEDAGÓGICA Y FACULTADES DE EDUCACIÓN LA ENSEÑANZA DE LEGUAS ORIGINARIAS</t>
+          <t>TítuloLEY QUE CREA LA UNIVERSIDAD NACIONAL AUTÓNOMA DEL VILCANOTA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Estado ProcesalEN COMISIÓN</t>
+          <t>Estado ProcesalPRESENTADO</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1037,29 +1037,29 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>AutoresCruz Mamani, Flavio Agüero Gutiérrez, María Antonieta Palacios Huamán, Margot ver más...</t>
+          <t>AutoresBalcázar Zelada, José María Coayla Juárez, Jorge Samuel Marticorena Mendoza, Jorge Alfonso ver más...</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06673/2023-CR</t>
+          <t>Proyecto de Ley 06689/2023-CR</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Fecha de Presentación15/12/2023</t>
+          <t>Fecha de Presentación18/12/2023</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE DEROGA LA LEY N° 6194, LEY QUE CORTA LOS JUICIOS SEGUIDOS CON MOTIVO DE LAS SUBLEVACIONES INDÍGENAS DE AYACUCHO, LA MAR, TAYACAJA, HUANCANÉ, AZÁNGARO Y QUISPICANCHI</t>
+          <t>TítuloLEY MARCO PARA LA PROTECCIÓN Y FORTALECIMIENTO DE LA FAMILIA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Estado ProcesalEN COMISIÓN</t>
+          <t>Estado ProcesalPRESENTADO</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1069,24 +1069,24 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>AutoresCruz Mamani, Flavio Palacios Huamán, Margot Mita Alanoca, Isaac ver más...</t>
+          <t>AutoresJáuregui Martínez de Aguayo, María de los Milagros Jackeline Huamán Coronado, Raúl Infantes Castañeda, Mery Eliana ver más...</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06672/2023-PE</t>
+          <t>Proyecto de Ley 06688/2023-CR</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Fecha de Presentación15/12/2023</t>
+          <t>Fecha de Presentación18/12/2023</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>TítuloRESOLUCIÓN LEGISLATIVA QUE APRUEBA EL ACUERDO ENTRE EL GOBIERNO DE LA REPÚBLICA DEL PERÚ Y EL GOBIERNO DE LOS ESTADOS UNIDOS DE AMÉRICA PARA LA IMPLEMENTACIÓN DEL CONVENIO PARA COMBATIR EL USO INDEBIDO Y LA PRODUCCIÓN Y EL TRÁFICO ILÍCITOS DE DROGAS ENTRE LA REPÚBLICA DEL PERÚ Y LOS ESTADOS UNIDOS DE AMÉRICA, SUSCRITO EN LIMA EL 23 DE JULIO DE 1996 Y ACERCA DE LA INTERCEPTACIÓN AÉREA Y LA ASISTENCIA CONEXA DE LOS ESTADOS UNIDOS DE AMÉRICA</t>
+          <t>TítuloLEY QUE ESTABLECE PARÁMETROS PARA EL SANEAMIENTO DE LA PROPIEDAD DE LOS POSESIONARIOS DE VIVIENDA CONSTRUIDAS CON RECURSOS DEL FONAVI</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1096,19 +1096,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ProponentePoder Ejecutivo</t>
+          <t>ProponenteCongreso</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Autores</t>
+          <t>AutoresLimachi Quispe, Nieves Esmeralda Bazán Narro, Sigrid Tesoro Cortez Aguirre, Isabel ver más...</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06671/2023-CR</t>
+          <t>Proyecto de Ley 06687/2023-CR</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1118,12 +1118,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>TítuloRESOLUCIÓN LEGISLATIVA DEL CONGRESO QUE DELEGA EN LA COMISIÓN PERMANENTE LA FACULTAD DE LEGISLAR</t>
+          <t>TítuloLEY QUE MODIFICA EL DECRETO LEGISLATIVO N° 1372, DECRETO LEGISLATIVO QUE REGULA LA OBLIGACIÓN DE LAS PERSONAS JURÍDICAS Y/O ENTES JURÍDICOS DE INFORMAR LA IDENTIFICACIÓN DE LOS BENEFICIARIOS FINALES</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Estado ProcesalPublicada en el Diario Oficial El Peruano</t>
+          <t>Estado ProcesalEN COMISIÓN</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1133,14 +1133,14 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>AutoresSoto Reyes, Alejandro Alegría García, Arturo Amuruz Dulanto, Yessica Rosselli</t>
+          <t>AutoresAnderson Ramírez, Carlos Antonio</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06670/2023-CR</t>
+          <t>Proyecto de Ley 06686/2023-CR</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>TítuloLEY DE REFORMA CONSTITUCIONAL QUE MODIFICA LOS ARTÍCULOS 66 Y 73 DE LA CONSTITUCION POLÍTICA DEL PERÚ</t>
+          <t>TítuloLEY QUE MODIFICA EL ARTÍCULO 382 DEL CÓDIGO PENAL</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1165,14 +1165,14 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>AutoresUgarte Mamani, Jhakeline Katy Burgos Oliveros, Juan Bartolomé Acuña Peralta, Segundo Héctor</t>
+          <t>AutoresAnderson Ramírez, Carlos Antonio</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06669/2023-CR</t>
+          <t>Proyecto de Ley 06685/2023-CR</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE DECLARA DE NECESIDAD PÚBLICA E INTERÉS NACIONAL LA REORGANIZACIÓN DEL ESTADO A TRAVÉS DE LA REDUCCIÓN POR FUSIÓN DE MINISTERIOS PARA LOGRAR SU OPTIMIZACIÓN</t>
+          <t>TítuloLEY QUE MODIFICA LA LEY 31313, LEY DE DESARROLLO URBANO SOSTENIBLE, CON LA FINALIDAD DE MITIGAR LOS EFECTOS NEGATIVOS GENERADOS POR PROYECTOS DE INFRAESTRUCTURA VIAL DE ALCANCE METROPOLITANO</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1197,14 +1197,14 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>AutoresUgarte Mamani, Jhakeline Katy Acuña Peralta, Segundo Héctor Burgos Oliveros, Juan Bartolomé</t>
+          <t>AutoresAragón Carreño, Luis Ángel Espinoza Vargas, Jhaec Darwin Portero López, Hilda Marleny ver más...</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06668/2023-CR</t>
+          <t>Proyecto de Ley 06684/2023-CR</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1214,7 +1214,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE PROTEGRE LA BIODIVERSIDAD ACUÁTICA EN LA ÁREAS NATURALES PROTEGIDAS</t>
+          <t>TítuloLEY QUE PROMUEVE EL TURISMO FÍLMICO EN LA REGIÓN DEL CUSCO</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1229,14 +1229,14 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>AutoresParedes Fonseca, Karol Ivett Monteza Facho, Silvia María Alva Prieto, María del Carmen</t>
+          <t>AutoresAragón Carreño, Luis Ángel Espinoza Vargas, Jhaec Darwin Vergara Mendoza, Elvis Hernán ver más...</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06667/2023-CR</t>
+          <t>Proyecto de Ley 06683/2023-CR</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE REGULA EL BENEFICIO DE SEGURIDAD Y PROTECCION PERSONAL A EX PRESIDENTES DE LA REPUBLICA Y MINISTROS DE ESTADO</t>
+          <t>Título"LEY QUE DECLARA DE NECESIDAD PÚBLICA PARA LA CREACIÓN DE UNA UNIDAD DE HEMODINÁMICA EN EL HOSPITAL REGIONAL DE LORETO"</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1261,14 +1261,14 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>AutoresArriola Tueros, José Alberto Alva Prieto, María del Carmen Alva Rojas, Carlos Enrique ver más...</t>
+          <t>AutoresSaavedra Casternoque, Hitler Azurín Loayza, Alfredo Valer Pinto, Héctor ver más...</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06666/2023-CR</t>
+          <t>Proyecto de Ley 06682/2023-CR</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE PROPONE RESTABLECER LA OPERATIVIDAD DE LOS ESTABLECIMIENTOS PENITENCIARIOS "EL FRONTÓN" Y LA "COLONIA PENAL AGRÍCOLA DEL SEPA" A FIN DE TRASLADAR A LOS INTERNOS DE ALTA PELIGROSIDAD</t>
+          <t>Título"LEY QUE DECLARA DE INTERÉS NACIONAL Y NECESIDAD PÚBLICA LA CREACIÓN E IMPLEMENTACIÓN DEL CENTRO REGIONAL DE SALUD RENAL EN LA AMAZONÍA PERUANA"</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1293,24 +1293,24 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>AutoresArriola Tueros, José Alberto Alva Rojas, Carlos Enrique Alva Prieto, María del Carmen ver más...</t>
+          <t>AutoresSaavedra Casternoque, Hitler Azurín Loayza, Alfredo Valer Pinto, Héctor ver más...</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06665/2023-CR</t>
+          <t>Proyecto de Ley 06681/2023-CR</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Fecha de Presentación14/12/2023</t>
+          <t>Fecha de Presentación15/12/2023</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE ARTICULA LA POLÍTICA INTEGRAL DE MEJORA REGULATORIA</t>
+          <t>TítuloPROYECTO DE LEY QUE REESTABLECE LA FORMACIÓN PRE-MILITAR EN LA EDUCACIÓN BÁSICA REGULAR (5TO AÑO DE EDUCACIÓN SECUNDARIA) Y MODIFICA EL ARTÍCULO 36° DE LA LEY 28044, LEY GENERAL DE EDUCACIÓN</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1325,24 +1325,24 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>AutoresTudela Gutiérrez, Adriana Josefina Gonzales Delgado, Diana Carolina Cavero Alva, Alejandro Enrique ver más...</t>
+          <t>AutoresArriola Tueros, José Alberto Paredes Fonseca, Karol Ivett Alva Rojas, Carlos Enrique ver más...</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06664/2023-CR</t>
+          <t>Proyecto de Ley 06680/2023-CR</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Fecha de Presentación14/12/2023</t>
+          <t>Fecha de Presentación15/12/2023</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA LA LEY 27783 LEY DE BASES DE LA DESCENTRALIZACION Y LA LEY 29158 LEY ORGÁNICA DEL PODER EJECUTIVO PARA DESCENTRALIZAR LAS SEDES DE ORGANISMOS PÚBLICOS EN UN DEPARTAMENTO DISTINTO DE LIMA</t>
+          <t>TítuloLEY QUE MODIFICA LOS ARTÍCULOS 368-A, 368-B, 368-C Y 368-D DEL CODIGO PENAL REFERIDO A LA SEGURIDAD AL INTERIOR DE LOS ESTABLECIMIENTOS PENITENCIARIOS</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1357,24 +1357,24 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>AutoresAgüero Gutiérrez, María Antonieta Palacios Huamán, Margot Mita Alanoca, Isaac ver más...</t>
+          <t>AutoresAlva Prieto, María del Carmen Arriola Tueros, José Alberto Paredes Fonseca, Karol Ivett ver más...</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06663/2023-CR</t>
+          <t>Proyecto de Ley 06679/2023-CR</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Fecha de Presentación14/12/2023</t>
+          <t>Fecha de Presentación15/12/2023</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>TítuloLEY DE REFORMA CONSTITUCIONAL QUE MODIFICA EL ARTICULO 166 DE LA CONSTITUCIÓN POLÍTICA DEL PERÚ CON LA FINALIDAD DE CREAR LA GUARDIA NACIONAL Y LA POLICÍA DE INVESTIGACIÓN CRIMINAL</t>
+          <t>TítuloLEY QUE MODIFICA LA PROGNOSIS DE LA PENA DE LOS DELITOS AMBIENTALES ESTABLECIDOS EN EL TITULO XIII: DELITOS AMBIENTALES DEL CODIGO PENAL Y DISPONE LA DEROGACIÓN DEL ARTICULO 314-D DEL MISMO CUERPO NORMATIVO</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1389,24 +1389,24 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>AutoresAzurín Loayza, Alfredo Pazo Nunura, Jose Bernardo Valer Pinto, Héctor ver más...</t>
+          <t>AutoresDávila Atanacio, Pasión Neomías Medina Hermosilla, Elizabeth Sara Tacuri Valdivia, Germán Adolfo ver más...</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06662/2023-CR</t>
+          <t>Proyecto de Ley 06678/2023-CR</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Fecha de Presentación14/12/2023</t>
+          <t>Fecha de Presentación15/12/2023</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE ESTABLECE LA MERITOCRACIA Y EVALUACION DE PRECANDIDATOS A LA PRESIDENCIA DE LA REPUBLICA, CONGRESO DE LA REPUBLICA, GOBIERNOS REGIONALES Y MUNICIPALES</t>
+          <t>TítuloLEY QUE DISPONE EL OTORGAMIENTO DE UNA BONIFICACIÓN ESPECIAL POR UBICACIÓN DE LA INSTITUCIÓN EDUCATIVA: ÁMBITO ZONA DE ALTURA PARA TRABAJADORES ADMINISTRATIVOS DEL SECTOR EDUCACIÓN</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1421,24 +1421,24 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>AutoresZeballos Madariaga, Carlos Javier Picón Quedo, Luis Raúl Elías Ávalos, José Luis ver más...</t>
+          <t>AutoresDávila Atanacio, Pasión Neomías Medina Hermosilla, Elizabeth Sara Tacuri Valdivia, Germán Adolfo ver más...</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06661/2023-CR</t>
+          <t>Proyecto de Ley 06677/2023-CR</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Fecha de Presentación14/12/2023</t>
+          <t>Fecha de Presentación15/12/2023</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE DECLARA DE NECESIDAD PÚBLICA LA INCORPORACIÓN DEL CURSO DE ENFERMEDADES RARAS O HUÉRFANAS (ERH) A LA CURRICULA NACIONAL DE EDUCACIÓN BÁSICA REGULAR</t>
+          <t>TítuloLEY QUE MODIFICA LA "LEY N° 31564 LEY DE PREVENCIÓN Y MITIGACIÓN DEL CONFLICTO DE INTERESES EN EL ACCESO Y SALIDA DE PERSONAL DEL SERVICIO PÚBLICO</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1453,24 +1453,24 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>AutoresGarcía Correa, Idelso Manuel Chiabra León, Roberto Enrique Soto Reyes, Alejandro ver más...</t>
+          <t>AutoresDávila Atanacio, Pasión Neomías Medina Hermosilla, Elizabeth Sara Gutiérrez Ticona, Paul Silvio ver más...</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06660/2023-CR</t>
+          <t>Proyecto de Ley 06676/2023-CR</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Fecha de Presentación14/12/2023</t>
+          <t>Fecha de Presentación15/12/2023</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE PROMUEVE EL USO DE LOS CONTRATOS DE CESIONES EN USO PARA SISTEMAS AGROFORESTALES - (CCUSAF), ESTABLECIDO EN LA LEY N° 29763, LEY FORESTAL Y DE FAUNA SILVESTRE</t>
+          <t>TítuloLEY QUE MODIFICA EL ARTÍCULO 273-A DEL CODIGO PENAL</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1485,24 +1485,24 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>AutoresParedes Castro, Francis Jhasmina Elías Ávalos, José Luis Juárez Calle, Heidy Lisbeth ver más...</t>
+          <t>AutoresAlva Prieto, María del Carmen Monteza Facho, Silvia María Arriola Tueros, José Alberto ver más...</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06659/2023-CR</t>
+          <t>Proyecto de Ley 06675/2023-CR</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Fecha de Presentación14/12/2023</t>
+          <t>Fecha de Presentación15/12/2023</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA EL ARTÍCULO 3 DE LA LEY N° 28451, LEY QUE CREA EL FONDO DE DESARROLLO SOCIOECONÓMICO DEL PROYECTO CAMISEA — FOCAM</t>
+          <t>TítuloLEY PARA LA IMPLEMENTACIÓN DEL SISTEMA DE GESTIÓN DE LA CALIDAD SEGÚN LA NORMA ISO 9001 EN LA ADMNISTRACIÓN PÚBLICA.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1517,24 +1517,24 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>AutoresTacuri Valdivia, Germán Adolfo Quiroz Barboza, Segundo Teodomiro Vásquez Vela, Lucinda ver más...</t>
+          <t>AutoresZeballos Madariaga, Carlos Javier Juárez Calle, Heidy Lisbeth Calle Lobatón, Digna ver más...</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06658/2023-CR</t>
+          <t>Proyecto de Ley 06674/2023-CR</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Fecha de Presentación14/12/2023</t>
+          <t>Fecha de Presentación15/12/2023</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE INCORPORA EL NUMERAL 2, DEL ACAPITE 15.3, DEL ARTÍCULO 15 DEL DECRETO LEGISLATIVO N° 1441, DECRETO LEGISLATIVO DEL SISTEMA NACIONAL DE TESORERIA</t>
+          <t>TítuloLEY QUE DECLARA DE INTERÉS NACIONAL LA INCORPORACIÓN EN EL CURRÍCULO NACIONAL DE ESCUELAS DE EDUCACIÓN SUPERIOR PEDAGÓGICA Y FACULTADES DE EDUCACIÓN LA ENSEÑANZA DE LEGUAS ORIGINARIAS</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1549,24 +1549,24 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>AutoresMuñante Barrios, Alejandro Montoya Manrique, Jorge Carlos Ciccia Vásquez, Miguel Ángel ver más...</t>
+          <t>AutoresCruz Mamani, Flavio Agüero Gutiérrez, María Antonieta Palacios Huamán, Margot ver más...</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06657/2023-CR</t>
+          <t>Proyecto de Ley 06673/2023-CR</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Fecha de Presentación14/12/2023</t>
+          <t>Fecha de Presentación15/12/2023</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>TítuloLEY DE REFORMA CONSTITUCIONAL QUE MODIFICA EL ARTÍCULO 2, NUMERAL 24, LITERAL F) DE LA CONSTITUCIÓN POLÍTICA DEL PERÚ PARA AMPLIAR EL PLAZO DE DETENCIÓN POLICIAL</t>
+          <t>TítuloLEY QUE DEROGA LA LEY N° 6194, LEY QUE CORTA LOS JUICIOS SEGUIDOS CON MOTIVO DE LAS SUBLEVACIONES INDÍGENAS DE AYACUCHO, LA MAR, TAYACAJA, HUANCANÉ, AZÁNGARO Y QUISPICANCHI</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1581,34 +1581,34 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>AutoresMuñante Barrios, Alejandro Montoya Manrique, Jorge Carlos Ciccia Vásquez, Miguel Ángel ver más...</t>
+          <t>AutoresCruz Mamani, Flavio Palacios Huamán, Margot Mita Alanoca, Isaac ver más...</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06656/2023-CR</t>
+          <t>Proyecto de Ley 06672/2023-PE</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Fecha de Presentación14/12/2023</t>
+          <t>Fecha de Presentación15/12/2023</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>TítuloRESOLUCIÓN LEGISLATIVA DE DESIGNACIÓN DEL SEÑOR PEDRO ALFREDO HERNÁNDEZ CHÁVEZ COMO MAGISTRADO DEL TRIBUNAL CONSTITUCIONAL</t>
+          <t>TítuloRESOLUCIÓN LEGISLATIVA QUE APRUEBA EL ACUERDO ENTRE EL GOBIERNO DE LA REPÚBLICA DEL PERÚ Y EL GOBIERNO DE LOS ESTADOS UNIDOS DE AMÉRICA PARA LA IMPLEMENTACIÓN DEL CONVENIO PARA COMBATIR EL USO INDEBIDO Y LA PRODUCCIÓN Y EL TRÁFICO ILÍCITOS DE DROGAS ENTRE LA REPÚBLICA DEL PERÚ Y LOS ESTADOS UNIDOS DE AMÉRICA, SUSCRITO EN LIMA EL 23 DE JULIO DE 1996 Y ACERCA DE LA INTERCEPTACIÓN AÉREA Y LA ASISTENCIA CONEXA DE LOS ESTADOS UNIDOS DE AMÉRICA</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Estado ProcesalPublicada en el Diario Oficial El Peruano</t>
+          <t>Estado ProcesalEN COMISIÓN</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ProponenteCongreso</t>
+          <t>ProponentePoder Ejecutivo</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1620,22 +1620,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06655/2023-CR</t>
+          <t>Proyecto de Ley 06671/2023-CR</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Fecha de Presentación14/12/2023</t>
+          <t>Fecha de Presentación15/12/2023</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE CREA EL REGISTRO MUNICIPAL DE PERSONAS QUE REALIZAN EL REPARTO DE PRODUCTOS Y SERVICIOS A DOMICILIO - REMUPRE</t>
+          <t>TítuloRESOLUCIÓN LEGISLATIVA DEL CONGRESO QUE DELEGA EN LA COMISIÓN PERMANENTE LA FACULTAD DE LEGISLAR</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Estado ProcesalEN COMISIÓN</t>
+          <t>Estado ProcesalPublicada en el Diario Oficial El Peruano</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1645,24 +1645,24 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>AutoresGonza Castillo, Américo Mita Alanoca, Isaac Cerrón Rojas, Waldemar José ver más...</t>
+          <t>AutoresSoto Reyes, Alejandro Alegría García, Arturo Amuruz Dulanto, Yessica Rosselli</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06654/2023-CR</t>
+          <t>Proyecto de Ley 06670/2023-CR</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Fecha de Presentación13/12/2023</t>
+          <t>Fecha de Presentación15/12/2023</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE DECLARA DE NECESIDAD PÚBLICA E INTERÉS NACIONAL LA CONSTRUCCIÓN DE INSTITUTOS ESPECIALIZADOS MATERNO PERINATAL Y DEL NIÑO EN LAS REGIONES</t>
+          <t>TítuloLEY DE REFORMA CONSTITUCIONAL QUE MODIFICA LOS ARTÍCULOS 66 Y 73 DE LA CONSTITUCION POLÍTICA DEL PERÚ</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1677,24 +1677,24 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>AutoresPalacios Huamán, Margot Cruz Mamani, Flavio Gonza Castillo, Américo ver más...</t>
+          <t>AutoresUgarte Mamani, Jhakeline Katy Burgos Oliveros, Juan Bartolomé Acuña Peralta, Segundo Héctor</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06653/2023-CR</t>
+          <t>Proyecto de Ley 06669/2023-CR</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Fecha de Presentación13/12/2023</t>
+          <t>Fecha de Presentación15/12/2023</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>TítuloRESOLUCIÓN LEGISLATIVA DEL CONGRESO QUE MODIFICA EL ARTÍCULO 23 DEL REGLAMENTO DEL CONGRESO DE LA REPÚBLICA</t>
+          <t>TítuloLEY QUE DECLARA DE NECESIDAD PÚBLICA E INTERÉS NACIONAL LA REORGANIZACIÓN DEL ESTADO A TRAVÉS DE LA REDUCCIÓN POR FUSIÓN DE MINISTERIOS PARA LOGRAR SU OPTIMIZACIÓN</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1709,24 +1709,24 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>AutoresFlores Ruiz, Víctor Seferino Alegría García, Arturo Olivos Martínez, Vivian ver más...</t>
+          <t>AutoresUgarte Mamani, Jhakeline Katy Acuña Peralta, Segundo Héctor Burgos Oliveros, Juan Bartolomé</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06652/2023-CR</t>
+          <t>Proyecto de Ley 06668/2023-CR</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Fecha de Presentación13/12/2023</t>
+          <t>Fecha de Presentación15/12/2023</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE ESTABLECE MEDIDAS PARA GARANTIZAR LA PRESTACIÓN REAL Y EFECTIVA DE LOS ARBITRIOS MUNICIPALES QUE PAGAN LOS CONTRIBUYENTES</t>
+          <t>TítuloLEY QUE PROTEGRE LA BIODIVERSIDAD ACUÁTICA EN LA ÁREAS NATURALES PROTEGIDAS</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1741,24 +1741,24 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>AutoresFlores Ruiz, Víctor Seferino Barbarán Reyes, Rosangella Andrea Castillo Rivas, Eduardo Enrique ver más...</t>
+          <t>AutoresParedes Fonseca, Karol Ivett Monteza Facho, Silvia María Alva Prieto, María del Carmen</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06651/2023-CR</t>
+          <t>Proyecto de Ley 06667/2023-CR</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Fecha de Presentación13/12/2023</t>
+          <t>Fecha de Presentación15/12/2023</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE FORTALECE LAS UNIDADES DE SOPORTE METABÓLICO NUTRICIONAL EN LOS ESTABLECIMIENTOS DE SALUD</t>
+          <t>TítuloLEY QUE REGULA EL BENEFICIO DE SEGURIDAD Y PROTECCION PERSONAL A EX PRESIDENTES DE LA REPUBLICA Y MINISTROS DE ESTADO</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1773,24 +1773,24 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>AutoresLuque Ibarra, Ruth Bazán Narro, Sigrid Tesoro Sánchez Palomino, Roberto Helbert ver más...</t>
+          <t>AutoresArriola Tueros, José Alberto Alva Prieto, María del Carmen Alva Rojas, Carlos Enrique ver más...</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06650/2023-CR</t>
+          <t>Proyecto de Ley 06666/2023-CR</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Fecha de Presentación13/12/2023</t>
+          <t>Fecha de Presentación15/12/2023</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>TítuloLEY PARA PREVENIR LA VIOLENCIA OBSTÉTRICA CONTRA LAS MUJERES CON DISCAPACIDAD SENSORIAL DURANTE EL ESTADO DE GESTACIÓN, PARTO Y POSPARTO, EN LOS ESTABLECIMIENTOS DE SALUD</t>
+          <t>TítuloLEY QUE PROPONE RESTABLECER LA OPERATIVIDAD DE LOS ESTABLECIMIENTOS PENITENCIARIOS "EL FRONTÓN" Y LA "COLONIA PENAL AGRÍCOLA DEL SEPA" A FIN DE TRASLADAR A LOS INTERNOS DE ALTA PELIGROSIDAD</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1805,24 +1805,24 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>AutoresKamiche Morante, Luis Roberto Sánchez Palomino, Roberto Helbert Bazán Narro, Sigrid Tesoro ver más...</t>
+          <t>AutoresArriola Tueros, José Alberto Alva Rojas, Carlos Enrique Alva Prieto, María del Carmen ver más...</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06649/2023-CR</t>
+          <t>Proyecto de Ley 06665/2023-CR</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Fecha de Presentación13/12/2023</t>
+          <t>Fecha de Presentación14/12/2023</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>TítuloLEY DE SEGURIDAD HÍDRICA PARA LA AGRICULTURA SOSTENIBLE</t>
+          <t>TítuloLEY QUE ARTICULA LA POLÍTICA INTEGRAL DE MEJORA REGULATORIA</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1837,24 +1837,24 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>AutoresTaipe Coronado, María Elizabeth Palacios Huamán, Margot Mita Alanoca, Isaac ver más...</t>
+          <t>AutoresTudela Gutiérrez, Adriana Josefina Gonzales Delgado, Diana Carolina Cavero Alva, Alejandro Enrique ver más...</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06648/2023-CR</t>
+          <t>Proyecto de Ley 06664/2023-CR</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Fecha de Presentación13/12/2023</t>
+          <t>Fecha de Presentación14/12/2023</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE ESTABLECE LA DEFINICIÓN DE EMPRESA FAMILIAR</t>
+          <t>TítuloLEY QUE MODIFICA LA LEY 27783 LEY DE BASES DE LA DESCENTRALIZACION Y LA LEY 29158 LEY ORGÁNICA DEL PODER EJECUTIVO PARA DESCENTRALIZAR LAS SEDES DE ORGANISMOS PÚBLICOS EN UN DEPARTAMENTO DISTINTO DE LIMA</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1869,24 +1869,24 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>AutoresAnderson Ramírez, Carlos Antonio</t>
+          <t>AutoresAgüero Gutiérrez, María Antonieta Palacios Huamán, Margot Mita Alanoca, Isaac ver más...</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06647/2023-CR</t>
+          <t>Proyecto de Ley 06663/2023-CR</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Fecha de Presentación13/12/2023</t>
+          <t>Fecha de Presentación14/12/2023</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE SANCIONA EL EVITAR EL CONTROL BIOMETRICO DE INGRESO Y SALIDA AL PAIS</t>
+          <t>TítuloLEY DE REFORMA CONSTITUCIONAL QUE MODIFICA EL ARTICULO 166 DE LA CONSTITUCIÓN POLÍTICA DEL PERÚ CON LA FINALIDAD DE CREAR LA GUARDIA NACIONAL Y LA POLICÍA DE INVESTIGACIÓN CRIMINAL</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>AutoresAlva Prieto, María del Carmen Monteza Facho, Silvia María Arriola Tueros, José Alberto ver más...</t>
+          <t>AutoresAzurín Loayza, Alfredo Pazo Nunura, Jose Bernardo Valer Pinto, Héctor ver más...</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06646/2023-CR</t>
+          <t>Proyecto de Ley 06662/2023-CR</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Fecha de Presentación13/12/2023</t>
+          <t>Fecha de Presentación14/12/2023</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>TítuloRESOLUCION LEGISLATIVA QUE MODIFICA LOS LITERALES C), D) Y F) DEL ARTICULO 89° DEL REGLAMENTO DEL CONGRESO</t>
+          <t>TítuloLEY QUE ESTABLECE LA MERITOCRACIA Y EVALUACION DE PRECANDIDATOS A LA PRESIDENCIA DE LA REPUBLICA, CONGRESO DE LA REPUBLICA, GOBIERNOS REGIONALES Y MUNICIPALES</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1933,24 +1933,24 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>AutoresAlva Prieto, María del Carmen Monteza Facho, Silvia María Arriola Tueros, José Alberto ver más...</t>
+          <t>AutoresZeballos Madariaga, Carlos Javier Picón Quedo, Luis Raúl Elías Ávalos, José Luis ver más...</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06645/2023-CR</t>
+          <t>Proyecto de Ley 06661/2023-CR</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Fecha de Presentación13/12/2023</t>
+          <t>Fecha de Presentación14/12/2023</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE REGULA LA PROTECCIÓN AL DENUNCIANTE DE HECHOS DE CORRUPCIÓN EN OBRA PÚBLICA Y OTORGA BENEFICIOS</t>
+          <t>TítuloLEY QUE DECLARA DE NECESIDAD PÚBLICA LA INCORPORACIÓN DEL CURSO DE ENFERMEDADES RARAS O HUÉRFANAS (ERH) A LA CURRICULA NACIONAL DE EDUCACIÓN BÁSICA REGULAR</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1965,24 +1965,24 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>AutoresAnderson Ramírez, Carlos Antonio Camones Soriano, Lady Mercedes Zeballos Madariaga, Carlos Javier</t>
+          <t>AutoresGarcía Correa, Idelso Manuel Chiabra León, Roberto Enrique Soto Reyes, Alejandro ver más...</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06644/2023-CR</t>
+          <t>Proyecto de Ley 06660/2023-CR</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Fecha de Presentación13/12/2023</t>
+          <t>Fecha de Presentación14/12/2023</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE DECLARA DE INTERÉS NACIONAL Y NECESIDAD PÚBLICA LA CONSTRUCCIÓN Y AMPLIACIÓN DEL PROYECTO DE IRRIGACIÓN MAGUNCHAL, EN EL DEPARTAMENTO DE AMAZONAS</t>
+          <t>TítuloLEY QUE PROMUEVE EL USO DE LOS CONTRATOS DE CESIONES EN USO PARA SISTEMAS AGROFORESTALES - (CCUSAF), ESTABLECIDO EN LA LEY N° 29763, LEY FORESTAL Y DE FAUNA SILVESTRE</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1997,24 +1997,24 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>AutoresInfantes Castañeda, Mery Eliana Chacón Trujillo, Nilza Merly López Morales, Jeny Luz ver más...</t>
+          <t>AutoresParedes Castro, Francis Jhasmina Elías Ávalos, José Luis Juárez Calle, Heidy Lisbeth ver más...</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06643/2023-CR</t>
+          <t>Proyecto de Ley 06659/2023-CR</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Fecha de Presentación13/12/2023</t>
+          <t>Fecha de Presentación14/12/2023</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE DECLARA DE INTERÉS NACIONAL Y NECESIDAD PÚBLICA LA CONSTRUCCIÓN E IMPLEMENTACIÓN DEL NUEVO HOSPITAL REGIONAL DE HUACHO CATEGORÍA III - 1.</t>
+          <t>TítuloLEY QUE MODIFICA EL ARTÍCULO 3 DE LA LEY N° 28451, LEY QUE CREA EL FONDO DE DESARROLLO SOCIOECONÓMICO DEL PROYECTO CAMISEA — FOCAM</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2029,24 +2029,24 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>AutoresCerrón Rojas, Waldemar José Palacios Huamán, Margot Cruz Mamani, Flavio ver más...</t>
+          <t>AutoresTacuri Valdivia, Germán Adolfo Quiroz Barboza, Segundo Teodomiro Vásquez Vela, Lucinda ver más...</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06642/2023-CR</t>
+          <t>Proyecto de Ley 06658/2023-CR</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Fecha de Presentación12/12/2023</t>
+          <t>Fecha de Presentación14/12/2023</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE FACULTA EL RETIRO VOLUNTARIO DE LOS FONDOS ADMINSTRADOS POR LAS AFP DE HASTA CUATRO (4) UIT</t>
+          <t>TítuloLEY QUE INCORPORA EL NUMERAL 2, DEL ACAPITE 15.3, DEL ARTÍCULO 15 DEL DECRETO LEGISLATIVO N° 1441, DECRETO LEGISLATIVO DEL SISTEMA NACIONAL DE TESORERIA</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2061,7 +2061,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>AutoresPariona Sinche, Alfredo</t>
+          <t>AutoresMuñante Barrios, Alejandro Montoya Manrique, Jorge Carlos Ciccia Vásquez, Miguel Ángel ver más...</t>
         </is>
       </c>
     </row>
